--- a/medicine/Handicap/Déambulateur/Déambulateur.xlsx
+++ b/medicine/Handicap/Déambulateur/Déambulateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ambulateur</t>
+          <t>Déambulateur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un déambulateur, aussi appelé cadre de marche, gadot, tintébin en Suisse, tribune ou rollator en Belgique ou marchette au Canada, est un accessoire para-médical constitué d'une armature métallique offrant quatre points d'appui qui permet aux personnes ayant des problèmes aux jambes (blessures, maladie, âge) de se déplacer plus facilement [1].  
-Un déambulateur est généralement constitué d'un cadre léger en acier tubulaire et de quatre (parfois trois) roues munies de pneus en caoutchouc. Il y a deux poignées avec des freins qui peuvent être bloqués. Un déambulateurs est généralement équipé d'un panier à provisions et d'un siège sur lequel l'utilisateur peut se reposer ou sur lequel un plateau peut être monté. Il existe même des déambulateurs qui peuvent être utilisés comme un fauteuil roulant[2], avantages que n'ont pas les cannes et les béquilles. Les déambulateurs sont également pliables. Les premiers avaient l'inconvénient de se plier parfois spontanément. Les modèles classiques nécessitent toujours deux mains pour plier et déplier le déambulateur. Mais en attendant, il existe plusieurs modèles où l'utilisateur peut plier le déambulateur d'une seule main et où il reste fermé grâce à un crochet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un déambulateur, aussi appelé cadre de marche, gadot, tintébin en Suisse, tribune ou rollator en Belgique ou marchette au Canada, est un accessoire para-médical constitué d'une armature métallique offrant quatre points d'appui qui permet aux personnes ayant des problèmes aux jambes (blessures, maladie, âge) de se déplacer plus facilement .  
+Un déambulateur est généralement constitué d'un cadre léger en acier tubulaire et de quatre (parfois trois) roues munies de pneus en caoutchouc. Il y a deux poignées avec des freins qui peuvent être bloqués. Un déambulateurs est généralement équipé d'un panier à provisions et d'un siège sur lequel l'utilisateur peut se reposer ou sur lequel un plateau peut être monté. Il existe même des déambulateurs qui peuvent être utilisés comme un fauteuil roulant, avantages que n'ont pas les cannes et les béquilles. Les déambulateurs sont également pliables. Les premiers avaient l'inconvénient de se plier parfois spontanément. Les modèles classiques nécessitent toujours deux mains pour plier et déplier le déambulateur. Mais en attendant, il existe plusieurs modèles où l'utilisateur peut plier le déambulateur d'une seule main et où il reste fermé grâce à un crochet.
 Le déambulateur avec roues remplace de plus en plus le déambulateur sans roues qui existait auparavant. Cependant, un déambulateur sans roues conserve sa propre fonction, car pour les personnes dont l'état a tendance à pousser l'aide à la marche devant elles, un déambulateur avec roues n'est parfois pas une option utile.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9ambulateur</t>
+          <t>Déambulateur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9ambulateur</t>
+          <t>Déambulateur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,130 +555,552 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cadre
-Matériau
-Comme pour d’autres objets, par exemple les vélos, il existe différents matériaux avec un arbitrage entre légèreté et prix.
+          <t>Cadre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Matériau</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Comme pour d’autres objets, par exemple les vélos, il existe différents matériaux avec un arbitrage entre légèreté et prix.
 Fer (relativement lourd)
 Aluminium (léger)
-Carbone (le plus léger et le plus résistant)
-Pliable
-Les déambulateurs sont conçus pour être transportés dans les transports publics et dans une voiture, c'est pourquoi la plupart d'entre eux ont un châssis pliable. Les différences se situent dans le sens du pliage. Généralement, le déambulateur est pliable en largeur en tirant le siège vers le haut, c'est souvent le plus pratique. Le pliage dans la longueur est également possible, le déambulateur standard est pliable dans la longueur et ne reste pas debout, on peut le ranger mais il ne roule pas lorsqu'il est plié.
+Carbone (le plus léger et le plus résistant)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cadre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pliable</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les déambulateurs sont conçus pour être transportés dans les transports publics et dans une voiture, c'est pourquoi la plupart d'entre eux ont un châssis pliable. Les différences se situent dans le sens du pliage. Généralement, le déambulateur est pliable en largeur en tirant le siège vers le haut, c'est souvent le plus pratique. Le pliage dans la longueur est également possible, le déambulateur standard est pliable dans la longueur et ne reste pas debout, on peut le ranger mais il ne roule pas lorsqu'il est plié.
 Les modèles plus récents ont parfois comme PUV (proposition de vente unique) qu'ils sont doublement pliés, ceci est relativement nouveau et utile pour gagner de l'espace lors du rangement du déambulateur. Grâce à un double système de pliage, le déambulateur est pliable à la fois en longueur et en largeur. Il existe également des différences à ce niveau, certaines nécessitent de dévisser des vis et pour d'autres on peut simplement tirer le siège vers le haut sans avoir à effectuer d'autres actions (ex : déambulateur Trive d'Uplivin).
-Poids
-Le poids d'un déambulateur joue souvent un rôle important pour l'utilisateur. Les fabricants réagissent à cela et essaient de rendre le cadre aussi léger que possible. Dans certains cas, il est préférable de prendre un modèle plus lourd. Les personnes qui ont tendance à tomber en arrière et à tirer leur déambulateur vers le haut ont intérêt à prendre un modèle plus lourd. Cela permet de les garder au mieux avec toutes les roues au sol.
-Roues
-En fonction de l'utilisation, il existe des roues personnalisées pour tous.
-Matériel
-Souvent avec du plastique dur (le moins cher). Autres alternatives possibles : des roues en PUR (qui absorbent les chocs des petites bosses sur la piste, des pneumatiques, comme sur un vélo, généralement plus lourds mais plus confortables en marchant).
-Nombre
-Deux, trois ou quatre roues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cadre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poids</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poids d'un déambulateur joue souvent un rôle important pour l'utilisateur. Les fabricants réagissent à cela et essaient de rendre le cadre aussi léger que possible. Dans certains cas, il est préférable de prendre un modèle plus lourd. Les personnes qui ont tendance à tomber en arrière et à tirer leur déambulateur vers le haut ont intérêt à prendre un modèle plus lourd. Cela permet de les garder au mieux avec toutes les roues au sol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Roues</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En fonction de l'utilisation, il existe des roues personnalisées pour tous.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Roues</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Matériel</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Souvent avec du plastique dur (le moins cher). Autres alternatives possibles : des roues en PUR (qui absorbent les chocs des petites bosses sur la piste, des pneumatiques, comme sur un vélo, généralement plus lourds mais plus confortables en marchant).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Roues</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux, trois ou quatre roues.
 Les deux roues sont de moins en moins utilisées. Aux Pays-Bas et en Scandinavie, on le voit de moins en moins. Si on l'achète, c'est uniquement pour un usage intérieur ou pour la réhabilitation.
 Les trois roues donnent l'impression d'être plus étroites, mais elles ne le sont pas. Souvent, ils sont même plus larges, car sinon ils sont très instables. L'avantage des trois roues serait que la surface totale est plus petite et qu'on peut donc se déplacer plus facilement dans les petits espaces. Il semble qu'elle ait été remplacée par le fait que les déambulateurs à quatre roues sont plus étroits et ont des roulements à billes (ce qui n'est pas toujours le cas) dans les roues avant pour les rendre plus maniables.
 Quatre roues, c'est le plus grand choix. Les déambulateurs à quatre roues sont souvent utilisés à l'intérieur et à l'extérieur. Cette option est stable et maniable.
-Freins
-Un déambulateur ne va pas vite, mais il est toujours équipé de freins. Il est également possible de cliquer sur ces freins. Ainsi, la personne peut utiliser le déambulateur comme support, sans qu'il ne se déplace. Souvent, dans les modèles de conception, les câbles de frein sont cachés dans le cadre. Les câbles cachés ont également l'avantage de ne pouvoir se coincer nulle part.
-Les freins à tambour
-les freins à tambour sont les mêmes que sur un vélo
-Freins en V
-Ces freins ne sont pas des freins sur jante comme sur un vélo. Les freins en V d'un déambulateur freinent directement sur la roue, ce qui provoque une usure plus importante. Comme les vitesses dont nous parlons se situent entre 1 et 5 km/h, cela ne fait pas une grande différence.
-Siège
-Il existe des déambulateurss avec un siège dur et un siège souple. Le siège dur offre plus de confort aux personnes plus lourdes mais présente l'inconvénient de ne pas se plier (il y a des exceptions, par exemple le déambulateur Volaris Smart). Un siège souple est généralement en plastique, mais parfois aussi en similicuir.
-Accessoires
-Il existe de nombreux accessoires pour les déambulateurs. Aussi bien des accessoires spécifiques à un modèle particulier que des accessoires universels qui s'adaptent à tous les modèles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Freins</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un déambulateur ne va pas vite, mais il est toujours équipé de freins. Il est également possible de cliquer sur ces freins. Ainsi, la personne peut utiliser le déambulateur comme support, sans qu'il ne se déplace. Souvent, dans les modèles de conception, les câbles de frein sont cachés dans le cadre. Les câbles cachés ont également l'avantage de ne pouvoir se coincer nulle part.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Freins</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Les freins à tambour</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">les freins à tambour sont les mêmes que sur un vélo
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Freins</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Freins en V</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces freins ne sont pas des freins sur jante comme sur un vélo. Les freins en V d'un déambulateur freinent directement sur la roue, ce qui provoque une usure plus importante. Comme les vitesses dont nous parlons se situent entre 1 et 5 km/h, cela ne fait pas une grande différence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Siège</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des déambulateurss avec un siège dur et un siège souple. Le siège dur offre plus de confort aux personnes plus lourdes mais présente l'inconvénient de ne pas se plier (il y a des exceptions, par exemple le déambulateur Volaris Smart). Un siège souple est généralement en plastique, mais parfois aussi en similicuir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Accessoires</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe de nombreux accessoires pour les déambulateurs. Aussi bien des accessoires spécifiques à un modèle particulier que des accessoires universels qui s'adaptent à tous les modèles.
 Un panier, un porte-bâton, un dossier et un sac de rangement en sont quelques exemples.
-Poignées
-Les poignées d'un déambulateur sont toujours réglables en hauteur, parfois avec une vis.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D%C3%A9ambulateur</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Poignées</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les poignées d'un déambulateur sont toujours réglables en hauteur, parfois avec une vis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Déambulateur intérieur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout le monde n'a pas besoin d'un déambulateur pour la même raison. Comme pour les lunettes, il existe différentes tailles et formes pour convenir à chaque personne. Certains déambulateurs sont destinés à un usage extérieur, où ils sont équipés de grandes roues souples. D'autres déambulateurs sont plutôt destinés à une utilisation en intérieur, avec de petites roues très maniables et une plateforme pour poser de petits objets ou faire le ménage. Il existe également des modèles qui peuvent être utilisés à l'intérieur comme à l'extérieur.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>D%C3%A9ambulateur</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Déambulateur extérieur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Un déambulateur pour l'extérieur a généralement de plus grandes roues et est équipé d'un siège. Lorsque l'utilisateur marche, il peut toujours se reposer en bloquant les freins et en s'asseyant. La raison pour laquelle un déambulateur d'intérieur n'a parfois pas cette caractéristique est qu'il y a généralement suffisamment de places assises à l'intérieur. La plupart des déambulateurs d'extérieur sont également utilisables à l'intérieur.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>D%C3%A9ambulateur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Déambulateur</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ambulateur</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Achat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Un déambulateur peut être demandé par l'intermédiaire du médecin de famille mais peut aussi être acheté indépendamment à ses propres frais. Pour l'achat, on peut se rendre dans un magasin de soins à domicile ou sur Internet auprès de l'un des nombreux fournisseurs. Il existe différents déambulateurs pour l'intérieur et l'extérieur. Pour favoriser une bonne circulation sanguine, la hauteur doit être réglée correctement. 
 </t>
